--- a/inst/extdata/Tutorial/Populations.xlsx
+++ b/inst/extdata/Tutorial/Populations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">PopulationName</t>
   </si>
@@ -71,10 +71,7 @@
     <t xml:space="preserve">BMIUnit</t>
   </si>
   <si>
-    <t xml:space="preserve">Protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ontogeny</t>
+    <t xml:space="preserve">Protein Ontogenies</t>
   </si>
   <si>
     <t xml:space="preserve">random_population</t>
@@ -95,7 +92,7 @@
     <t xml:space="preserve">kg/m²</t>
   </si>
   <si>
-    <t xml:space="preserve">CYP3A4,UGT1A4</t>
+    <t xml:space="preserve">CYP3A4:CYP3A4, UGT1A4:UGT1A4</t>
   </si>
   <si>
     <t xml:space="preserve">Container Path</t>
@@ -121,7 +118,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,12 +147,6 @@
       <name val="Arial Unicode MS"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -207,20 +198,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -413,127 +408,120 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1048576"/>
+  <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="7.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="1" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="30.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="H2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="L2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="P2" s="0" t="s">
+      <c r="Q2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -558,33 +546,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
